--- a/Data/Transitions/19111941Translation.xlsx
+++ b/Data/Transitions/19111941Translation.xlsx
@@ -28,22 +28,22 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.15701727550325684, 837.0: 0.002100902288399068}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{486.0: 0.15920630519368856, 837.0: 0.002186026782725736}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9881325570980743}</t>
+    <t>{5.0: 0.988177559669864}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 0.7259633800658852}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690805402261538, 178.0: 0.00016231131309852296, 623.0: 0.0007625438462711606, 696.0: 0.0029159241859711645, 492.0: 1.804702755802187e-05}</t>
+    <t>{14.0: 0.9691308133691171, 178.0: 0.00016329196603527107, 623.0: 0.0007645259938837921, 696.0: 0.002995008319467554, 492.0: 1.842729104452426e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -73,7 +73,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.989010989010989}</t>
+    <t>{17.0: 0.9890756302521009}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -100,19 +100,19 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 90.0: 0.020710491553906, 246.0: 0.01497582965958572, 681.0: 0.003530544559751792, 741.0: 0.006816245384833854, 789.0: 0.0030857033245445683}</t>
+    <t>{46.0: 1.0, 90.0: 0.020732328647176654, 246.0: 0.014966331567818519, 681.0: 0.0035354617527319477, 741.0: 0.006816245384833854, 789.0: 0.0030919626462848826}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -130,7 +130,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.42733454268782284}</t>
+    <t>{834.0: 0.42673645002733873}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -145,25 +145,25 @@
     <t>{70.0: 1.0}</t>
   </si>
   <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.9985699985699986}</t>
+    <t>{73.0: 0.9985652797704447}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.0482681010397891}</t>
+    <t>{75.0: 1.0, 917.0: 0.04861319943855955}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -172,10 +172,10 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286, 757.0: 0.13017306245297217}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7809903028418587, 172.0: 0.0016461579677927844}</t>
+    <t>{764.0: 0.1490527567751253, 757.0: 0.16313059877416314}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7790212317198133, 172.0: 0.0016363927947164638}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,10 +187,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9954755017423704, 178.0: 0.008754152442495772, 14.0: 0.00027071760482978463}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.3966038535953838}</t>
+    <t>{85.0: 0.9954402787576053, 178.0: 0.008800518701521449, 14.0: 0.00027170922217892025}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.39472598793346425}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -202,13 +202,13 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9458762626498309}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9996668959460804, 92.0: 0.0022894964743212487}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.895849769001016}</t>
+    <t>{90.0: 0.9458544255565603}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9996710680889056, 92.0: 0.002229346176174735}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.8964991540825867}</t>
   </si>
   <si>
     <t>{93.0: 1.0}</t>
@@ -223,10 +223,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9961333977767037}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.4111959803251983}</t>
+    <t>{97.0: 0.9961451975586251}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.41510667628725817}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,22 +244,22 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{92.0: 0.04807960898129882}</t>
+    <t>{92.0: 0.04749038575004915}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: -0.005128927996402795, 86.0: -0.0022646779270950896}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9912172052696768, 144.0: 0.008141609952717104}</t>
-  </si>
-  <si>
-    <t>{109.0: 1.0, 110.0: 0.0231353591160221}</t>
-  </si>
-  <si>
-    <t>{110.0: 0.976864640883978}</t>
+    <t>{543.0: 0.3814859516448283, 86.0: 0.1685234797025494}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9912221471978393, 144.0: 0.008141467939881864}</t>
+  </si>
+  <si>
+    <t>{109.0: 1.0, 110.0: 0.02275042444821732}</t>
+  </si>
+  <si>
+    <t>{110.0: 0.9772495755517827}</t>
   </si>
   <si>
     <t>{139.0: 0.6022249604757921}</t>
@@ -271,10 +271,10 @@
     <t>{141.0: 0.7470256731371321}</t>
   </si>
   <si>
-    <t>{142.0: 0.6824977236609803, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9560112890544774}</t>
+    <t>{142.0: 0.6824606825091657, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9559939909401058}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
@@ -283,7 +283,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 1.0, 764.0: 0.02364448224537529, 733.0: 0.0815552394499763}</t>
+    <t>{147.0: 1.0, 764.0: 0.023617364709880215, 733.0: 0.07612303606992697}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -298,10 +298,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528, 975.0: 0.0008214690645289342}</t>
-  </si>
-  <si>
-    <t>{162.0: 0.6392101731740047}</t>
+    <t>{152.0: 0.9995732878173672, 975.0: 0.0008214403552842996}</t>
+  </si>
+  <si>
+    <t>{162.0: 0.6433579685427326}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -310,16 +310,16 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922, 914.0: 0.02521597011440579}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{165.0: 0.9614104302798668, 914.0: 0.02521597011440579}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
   </si>
   <si>
-    <t>{168.0: 0.9984929829518696}</t>
+    <t>{168.0: 0.9984805318138652}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -328,16 +328,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.7237212009969225}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411677681411907, 81.0: 0.003681063393975768}</t>
-  </si>
-  <si>
-    <t>{173.0: 1.0, 404.0: 0.0019775094998694884}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 502.0: 0.20986575324137519}</t>
+    <t>{171.0: 0.7267679586988522}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9404908672461181, 81.0: 0.0036717947657656834}</t>
+  </si>
+  <si>
+    <t>{173.0: 1.0, 404.0: 0.001993970440413294}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 502.0: 0.21160225464338223}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,61 +349,61 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9910835362444057, 14.0: 0.030648742169016453}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.055395038943986924, 410.0: 0.000809452455497035, 850.0: 6.286827434143215e-05, 277.0: 1.8136016186832138e-06}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9446049610560131, 410.0: 0.033467745756127404, 850.0: 0.0025993613429630604, 277.0: 7.49854515417098e-05}</t>
+    <t>{178.0: 0.9910361893324433, 14.0: 0.030597477408703968}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.05180906985496754, 410.0: 0.0007931447538327938, 850.0: 6.225564636792795e-05, 277.0: 1.8044115391298706e-06}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9481909301450324, 410.0: 0.03319185183630133, 850.0: 0.0026053002055827224, 277.0: 7.551176524725162e-05}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6468848045152845, 277.0: 0.001693484250973502}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16269738981458448}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.997979117547996, 171.0: 0.0036723380510758886, 593.0: 0.0009507381887469634, 778.0: 0.0005968011458582001}</t>
+    <t>{182.0: 0.6458285932967373, 277.0: 0.0016946080556379567}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16318645920505354}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9979626485568761, 171.0: 0.003644673256631927, 593.0: 0.000950454102370883, 778.0: 0.0005811250581125058}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
   </si>
   <si>
-    <t>{202.0: 0.9216604108666339}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.7106715641844588, 857.0: 0.004858248839482561}</t>
+    <t>{202.0: 0.9217296702120339}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.7106600987110239, 857.0: 0.004856450905275958}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 940.0: 0.4877637130801688}</t>
-  </si>
-  <si>
-    <t>{207.0: 1.0, 477.0: 0.07756537024829707}</t>
+    <t>{206.0: 0.8527388535031847, 940.0: 0.5021720243266724}</t>
+  </si>
+  <si>
+    <t>{207.0: 1.0, 477.0: 0.07758241758241759}</t>
   </si>
   <si>
     <t>{208.0: 1.0}</t>
   </si>
   <si>
-    <t>{209.0: 0.9932935916542474}</t>
+    <t>{209.0: 0.9932177844762623}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.006413972111570876}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.006422926225029913}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -412,16 +412,16 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.24406536889838756}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.18569618736466076}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{897.0: 0.24357767221532678}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.13819736127734558}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{219.0: 1.0}</t>
@@ -430,10 +430,10 @@
     <t>{221.0: 1.0, 999.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -442,10 +442,10 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.6609982656151687, 297.0: 4.127455836222553e-05, 686.0: 6.520786798273537e-05}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 0.6206265284284248, 297.0: 4.15092773234818e-05, 686.0: 6.532095759883434e-05}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -490,7 +493,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.6411979451724658}</t>
+    <t>{246.0: 0.6414567650874317}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -499,13 +502,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.8994204239565864}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.8985808107367719}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -541,28 +544,28 @@
     <t>{262.0: 1.0}</t>
   </si>
   <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
-  </si>
-  <si>
-    <t>{264.0: 0.8256951912792757, 843.0: 0.05213712708196535}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.3553158701756005}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.04639473584516582, 887.0: 0.1816527991938137}</t>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
+  </si>
+  <si>
+    <t>{264.0: 0.822645185991658, 843.0: 0.05310073134992693}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.4028146962629157}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.04700377208796266, 887.0: 0.18279766171966416}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -571,16 +574,16 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.3946098826756189}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6688266624138879}</t>
-  </si>
-  <si>
-    <t>{278.0: 1.0, 767.0: 0.007574832009773977, 757.0: 0.025527821769220777}</t>
+    <t>{686.0: 0.39461948541510167}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6686724021893773}</t>
+  </si>
+  <si>
+    <t>{278.0: 1.0, 767.0: 0.006935123042505592, 757.0: 0.029445404857946115}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.19041780567013103}</t>
+    <t>{182.0: 0.19098494749820913}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -604,22 +607,22 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.1776004475142387}</t>
+    <t>{909.0: 0.18034251035223528}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
-  </si>
-  <si>
-    <t>{289.0: 1.0, 730.0: 0.046404895461499236}</t>
+    <t>{288.0: 0.9978511952726296}</t>
+  </si>
+  <si>
+    <t>{289.0: 1.0, 730.0: 0.047420531526836895}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -637,10 +640,10 @@
     <t>{296.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9935198943371306}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5243254148187214, 297.0: 0.005448241703813769}</t>
+    <t>{297.0: 0.9934830434602133}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5212564069352182, 297.0: 0.005479224606699597}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -655,16 +658,16 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778, 144.0: 0.0009680310073963151}</t>
+    <t>{303.0: 0.9136242208370436, 144.0: 0.0009638655596774717}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.31750227633901973, 909.0: 0.40590425741616165}</t>
+    <t>{305.0: 0.7921536463673023}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.3175393174908343, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -673,7 +676,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.019816749671968618, 426.0: 0.03955197759887994, 857.0: 5.0486552666831835e-06}</t>
+    <t>{309.0: 1.0, 204.0: 0.01982821514540354, 426.0: 0.039725786605730354, 857.0: 5.050535780260245e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -688,13 +691,13 @@
     <t>{314.0: 1.0}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -703,31 +706,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{398.0: 1.0, 98.0: 0.5888040196748017}</t>
+    <t>{398.0: 1.0, 98.0: 0.5848933237127418}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 0.9842657342657343}</t>
   </si>
   <si>
-    <t>{402.0: 0.9989673688558447, 476.0: 0.014918474591968642}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.674162002169373}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.3066749135495155}</t>
+    <t>{402.0: 0.9989634083134653, 476.0: 0.014890400101380591}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.6713314360615305}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.3094046235519444}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -736,13 +736,13 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.9657228017883756}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.9660150034098659}</t>
   </si>
   <si>
     <t>{412.0: 1.0}</t>
@@ -754,7 +754,7 @@
     <t>{414.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.026208939182337652}</t>
+    <t>{415.0: 1.0, 277.0: 0.02622581817276165}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -763,28 +763,28 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.865523866886647, 212.0: 0.0008100445524503848, 681.0: 5.199815250564148e-06}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8641091794830309, 212.0: 0.0008067769261799112, 681.0: 5.186052664537677e-06}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9963219385547382}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174, 434.0: 0.0002397507716904726}</t>
+    <t>{423.0: 0.9963346269943941}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514, 434.0: 0.00021743081720157614}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
+    <t>{426.0: 0.9602742133942697}</t>
   </si>
   <si>
     <t>{428.0: 0.9962857389651896}</t>
@@ -793,19 +793,19 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.20959724221790005, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.49471176732203737}</t>
+    <t>{431.0: 0.15616427925643236, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.5481447302835051}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -814,7 +814,7 @@
     <t>{436.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.36078982682599525}</t>
+    <t>{162.0: 0.35664203145726736}</t>
   </si>
   <si>
     <t>{438.0: 1.0}</t>
@@ -826,34 +826,34 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096, 291.0: 0.06588822757407185}</t>
+    <t>{443.0: 0.9625164401578256, 291.0: 0.0661209283101997}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.826947033667272}</t>
-  </si>
-  <si>
-    <t>{477.0: 0.9224346297517029}</t>
+    <t>{476.0: 0.8253941069561146}</t>
+  </si>
+  <si>
+    <t>{477.0: 0.9224175824175824}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{431.0: 0.1544172726317702}</t>
@@ -868,7 +868,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.5247579841756855, 837.0: 0.0070212990658312146}</t>
+    <t>{486.0: 0.5225689544852539, 837.0: 0.007175279452255245}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -877,49 +877,49 @@
     <t>{488.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 1.0, 935.0: 0.005207010414020828}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7605812621772771, 97.0: 0.0038666022232962784, 696.0: 0.0010047874462351652}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395, 108.0: 0.008713043878725625, 144.0: 7.156676093227567e-05}</t>
+    <t>{489.0: 1.0, 935.0: 0.005155287312963662}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7605130266915621, 97.0: 0.0038548024413748794, 696.0: 0.0009761798221415134}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592, 108.0: 0.008708355836935765, 144.0: 7.152665026293531e-05}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.7430485921510396, 321.0: 1.0}</t>
+    <t>{497.0: 0.7419683051052892, 321.0: 1.0}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.20407104405611556}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.20353981494058748}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.7887436989542731}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{502.0: 0.7870035085039243}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -931,7 +931,7 @@
     <t>{933.0: 0.18729847189120988}</t>
   </si>
   <si>
-    <t>{507.0: 0.7996186117467582}</t>
+    <t>{507.0: 0.7984965866380302}</t>
   </si>
   <si>
     <t>{529.0: 1.0}</t>
@@ -949,13 +949,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.8956154017360338}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.44850068491083017, 837.0: 0.019086155338294847}</t>
+    <t>{534.0: 0.8960549645390071}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.4452228917993076, 837.0: 0.019443284366923764}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.6067210535157433}</t>
+    <t>{543.0: 0.6068619892475952}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -991,7 +991,7 @@
     <t>{561.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 1.0, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 1.0, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -1027,10 +1027,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.6583012640829924}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715, 303.0: 0.08622222222222223}</t>
+    <t>{580.0: 0.6573681889847305}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387, 303.0: 0.08637577916295637}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1042,7 +1042,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928, 434.0: 0.01909241091548}</t>
+    <t>{585.0: 0.9874713727603395, 434.0: 0.01713728914072638}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1051,7 +1051,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.2003813882532418}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.20150341336196978}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -1066,22 +1066,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9967745561456847, 686.0: 0.00515177483979713}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077, 476.0: 1.5421205904453837e-05}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.9973904244554508}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.007402846990770414}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9900333791340854}</t>
+    <t>{593.0: 0.9967788758222881, 686.0: 0.005100072579781049}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674, 476.0: 1.545128162434429e-05}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.9973572083490643}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.007619574305512909}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9897425992634663}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1096,13 +1096,13 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1120,16 +1120,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.0059104663291704935, 698.0: 0.0025583125699411907, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.8418999243921436}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.005625267681682604, 698.0: 0.0025780586288422277, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.8423040582090643}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1138,10 +1138,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.2834118967740765, 789.0: 0.004033396617945142}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.008799155487749743, 861.0: 0.015839714675338297, 253.0: 2.6052162294964303e-05}</t>
+    <t>{246.0: 0.28320684486708353, 789.0: 0.004033038154791923}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.008659293192683624, 861.0: 0.015856347789562113, 253.0: 2.607951939072716e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0, 785.0: 0.007395234182415777}</t>
@@ -1153,7 +1153,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{628.0: 1.0}</t>
   </si>
   <si>
-    <t>{629.0: 0.3460716828863043, 209.0: 0.0067064083457526085, 788.0: 0.513246688327918}</t>
+    <t>{629.0: 0.3460716828863043, 209.0: 0.006782215523737754, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1180,13 +1180,13 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
   </si>
   <si>
-    <t>{634.0: 0.8040555944472704}</t>
+    <t>{634.0: 0.8100037610480787}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1195,7 +1195,7 @@
     <t>{636.0: 0.8633610900832702}</t>
   </si>
   <si>
-    <t>{702.0: 0.0011762281836394683}</t>
+    <t>{702.0: 0.0010693921027385644}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
@@ -1207,13 +1207,13 @@
     <t>{680.0: 0.9970428782651553}</t>
   </si>
   <si>
-    <t>{681.0: 0.9900502835134267}</t>
+    <t>{681.0: 0.9900364259695736}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.02529103651019675, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.025307789715560587, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1222,10 +1222,10 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.5188192558492247}</t>
-  </si>
-  <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658, 502.0: 0.0013905478043516196}</t>
+    <t>{686.0: 0.5191522157073675}</t>
+  </si>
+  <si>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516, 502.0: 0.0013942368526933446}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1246,19 +1246,19 @@
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.434887333236689, 165.0: 0.03846626520830773, 433.0: 0.008276358402302987}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.1036072981944932, 857.0: 0.0965531899865637}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9960792883677937, 492.0: 0.006164862054244833}</t>
+    <t>{86.0: 0.4367505323639863, 165.0: 0.03858956972013315, 433.0: 0.00832729905865315}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10486712104823186, 857.0: 0.09662019999081836}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.996028811858391, 492.0: 0.006128234330951448}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.972150650919862}</t>
+    <t>{698.0: 0.9721141516555971}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1267,13 +1267,13 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.8084888436544718}</t>
+    <t>{702.0: 0.8084604296703546}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1282,28 +1282,28 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.21364068587520363}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.21430295186114953}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.9535951045385007}</t>
-  </si>
-  <si>
-    <t>{731.0: 0.8584500055120714}</t>
+    <t>{730.0: 0.9525794684731631}</t>
+  </si>
+  <si>
+    <t>{731.0: 0.8836851164054715}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 0.9184447605500237}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.29224517229790864, 73.0: 0.00143000143000143}</t>
+    <t>{733.0: 0.923876963930073}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.2922406305175582, 73.0: 0.0014347202295552368}</t>
   </si>
   <si>
     <t>{735.0: 0.6435926773455377}</t>
@@ -1312,19 +1312,19 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.1669884875968601, 246.0: 0.009385809539203704}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9931837546151662, 90.0: 0.033413245796262994, 789.0: 0.001339605819551074, 246.0: 0.0046834341753414985}</t>
+    <t>{740.0: 1.0, 789.0: 0.1669737704553179, 246.0: 0.00937818612090443}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9931837546151662, 90.0: 0.033413245796262994, 789.0: 0.0013426240374213674, 246.0: 0.004680023247519948}</t>
   </si>
   <si>
     <t>{743.0: 1.0}</t>
@@ -1342,7 +1342,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.14699280494761358, 476.0: 0.15811907053485494, 534.0: 0.10438459826396616}</t>
+    <t>{298.0: 0.14877215057145854, 476.0: 0.15970004166088042, 534.0: 0.1039450354609929}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1351,7 +1351,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.12805805004180382}</t>
+    <t>{580.0: 0.12832885915412007}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1366,7 +1366,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.36222635520957475, 634.0: 0.0029425639321034596}</t>
+    <t>{757.0: 0.2513707719978347, 634.0: 0.002853381809064126}</t>
   </si>
   <si>
     <t>{758.0: 0.7042549992482333}</t>
@@ -1375,10 +1375,10 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{762.0: 1.0}</t>
@@ -1387,7 +1387,7 @@
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1396,7 +1396,7 @@
     <t>{766.0: 1.0}</t>
   </si>
   <si>
-    <t>{767.0: 0.9924251679902261}</t>
+    <t>{767.0: 0.9930648769574945}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
@@ -1405,16 +1405,16 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.004195915018970644}</t>
+    <t>{770.0: 1.0, 992.0: 0.004189527220903865}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556, 108.0: 6.975085159753668e-05, 144.0: 5.729160314791915e-07}</t>
-  </si>
-  <si>
-    <t>{773.0: 1.0, 757.0: 0.48207276056823234}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818, 108.0: 6.949696522493627e-05, 144.0: 5.708178695335117e-07}</t>
+  </si>
+  <si>
+    <t>{773.0: 1.0, 757.0: 0.556053224370056}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9994031988541417, 171.0: 0.01830002189473766, 184.0: 0.0020208824520040417, 593.0: 0.00123755688186106}</t>
+    <t>{778.0: 0.9994188749418875, 171.0: 0.018088971578194488, 184.0: 0.0020373514431239388, 593.0: 0.001237224002436105}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
@@ -1435,13 +1435,13 @@
     <t>{780.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0003984644402254381, 172.0: 8.39876514179992e-07}</t>
-  </si>
-  <si>
-    <t>{782.0: 0.7409374650734597, 168.0: 0.001507017048130357, 930.0: 0.00013155327466053308}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.0003929158868795293, 172.0: 8.253494257144237e-07}</t>
+  </si>
+  <si>
+    <t>{782.0: 0.7360736129578894, 168.0: 0.0015194681861348527, 930.0: 0.00013177246095268097}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1453,37 +1453,37 @@
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{277.0: 0.07035222575331274}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.04411397150712322}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.824552806641099, 246.0: 0.04634508467932692}</t>
+    <t>{277.0: 0.07088345486884079}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.03853325046612803}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.824558604706184, 246.0: 0.0463118491092418}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
+    <t>{832.0: 0.8786591123701605}</t>
   </si>
   <si>
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9656272183435438, 486.0: 0.3182247403210576, 604.0: 0.406643068799627}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036780614452617912}</t>
+    <t>{834.0: 0.5258548522119905}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9647953317856802, 486.0: 0.3182247403210576, 604.0: 0.40822465293820404}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1498,10 +1498,10 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{843.0: 0.9478628729180346, 264.0: 0.1743048087207244}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.33900173438483133, 686.0: 0.016437816720647872}</t>
+    <t>{843.0: 0.9468992686500731, 264.0: 0.17735481400834197}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.37937347157157514, 686.0: 0.01637923011790771}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1513,25 +1513,25 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956, 277.0: 0.028770845290212236}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
-  </si>
-  <si>
-    <t>{852.0: 1.0, 922.0: 0.0020296183947407283}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 92.0: 1.6074545008734487e-07, 202.0: 0.07833958913336612, 680.0: 0.002957121734844751}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.060204809135467184}</t>
+    <t>{850.0: 0.9973324441480493, 277.0: 0.028906585596008384}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
+  </si>
+  <si>
+    <t>{852.0: 1.0, 922.0: 0.002098753927878973}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 92.0: 1.4919327550235536e-07, 202.0: 0.07827032978796614, 680.0: 0.002957121734844751}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.06009360873970052}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
@@ -1540,10 +1540,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.8985835125186872, 298.0: 0.001903546161053681}</t>
-  </si>
-  <si>
-    <t>{858.0: 1.0, 543.0: 0.011648711492656144}</t>
+    <t>{857.0: 0.8985182985681253, 298.0: 0.001920930441631163}</t>
+  </si>
+  <si>
+    <t>{858.0: 1.0, 543.0: 0.011652059107576513}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1552,13 +1552,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9841602853246617, 253.0: 0.0016186846798102988, 490.0: 0.04730928444707274}</t>
+    <t>{861.0: 0.9841436522104379, 253.0: 0.0016186573227145358, 490.0: 0.04747774480712166}</t>
   </si>
   <si>
     <t>{862.0: 1.0}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1567,10 +1567,10 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.8095480453184366, 834.0: 0.0003853383375844337}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.7077548277020914}</t>
+    <t>{887.0: 0.8085430450876522, 834.0: 0.0004049256727081552}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.7077593694824418}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1585,7 +1585,7 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
@@ -1594,25 +1594,25 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.02499643873816452}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.7138830138447109}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{896.0: 1.0, 897.0: 0.024944406380148505}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7146079196533135}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.044733262807919, 930.0: 0.10324494606396221, 404.0: 0.00974847848333064}</t>
-  </si>
-  <si>
-    <t>{788.0: 0.5308672831792052}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.41649529506959976}</t>
+    <t>{782.0: 0.044733262807919, 930.0: 0.10356293822099828, 404.0: 0.009766889704295272}</t>
+  </si>
+  <si>
+    <t>{788.0: 0.5280298321939093}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.4137347020225024}</t>
   </si>
   <si>
     <t>{910.0: 0.8165218347816522}</t>
@@ -1627,28 +1627,28 @@
     <t>{914.0: 0.9747840298855942}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.25325887987017, 420.0: 0.13447613311335305}</t>
+    <t>{915.0: 1.0, 171.0: 0.2504542281463881, 420.0: 0.135890820516969}</t>
   </si>
   <si>
     <t>{916.0: 1.0}</t>
   </si>
   <si>
-    <t>{917.0: 0.8783053255336375}</t>
+    <t>{917.0: 0.877960227134867}</t>
   </si>
   <si>
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182, 297.0: 0.0009905894006934125}</t>
+    <t>{298.0: 0.2231833910034602, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 686.0: 0.06491606204672862}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.914889522552359}</t>
+    <t>{921.0: 1.0, 686.0: 0.06468367522224322}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9160253682142534}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1666,13 +1666,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.0649226229958314}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.9982030043520989, 930.0: 0.5400328207924038}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.35659067986897347, 929.0: 0.0017969956479011652}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06371764180079881}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.9981531979973741, 930.0: 0.5499764046631795}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.34632888465486944, 929.0: 0.0018468020026259217}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1681,46 +1681,46 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 0.8127015281087901, 702.0: 0.004710491178842778, 249.0: 0.09355459834493014}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{933.0: 0.8127015281087901, 702.0: 0.0047130320024270705, 249.0: 0.09435006897597502}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 171.0: 0.001047559187094071, 593.0: 0.0010371487837073355, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.13926168166609582, 497.0: 0.024895113952272806, 731.0: 0.10743779919946725}</t>
+    <t>{937.0: 1.0, 171.0: 0.0010441683199331733, 593.0: 0.001033446072904923, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.13778294444063413, 497.0: 0.02472433810645906, 731.0: 0.08734667214952684}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
   </si>
   <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.1472611464968153}</t>
+    <t>{940.0: 0.49782797567332754, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.19300184162062614}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.18714285714285714}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.00212017325621649, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.32523553473386324, 615.0: 0.01084902321095488}</t>
+    <t>{971.0: 1.0, 975.0: 0.0021634278806931177, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.32523553473386324, 615.0: 0.010705282743861748}</t>
   </si>
   <si>
     <t>{973.0: 0.9165003326679974}</t>
@@ -1729,16 +1729,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9397951908645329}</t>
+    <t>{975.0: 0.9970151317640227}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9399063912602995}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204}</t>
+    <t>{782.0: 0.21279960670180362}</t>
   </si>
   <si>
     <t>{979.0: 1.0}</t>
@@ -1750,19 +1750,19 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.007024977698483497, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{497.0: 0.23205629389668767, 910.0: 0.044216483552252, 731.0: 0.034112195288461336}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.9913802849367914}</t>
-  </si>
-  <si>
-    <t>{486.0: 0.8813719916619287, 837.0: 0.1186280083380709}</t>
+    <t>{989.0: 1.0, 249.0: 0.007069120287253142, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{497.0: 0.2333073567882517, 910.0: 0.04569522077771368, 731.0: 0.028968211445001647}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.9913944869102509}</t>
+  </si>
+  <si>
+    <t>{486.0: 0.881371991661929, 837.0: 0.1186280083380709}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -1780,7 +1780,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123918, 178.0: 0.0006410880191330579, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519682, 492.0: 9.25223268524091e-05}</t>
+    <t>{14.0: 0.9919351812436294, 178.0: 0.000640674146945109, 623.0: 0.0016139444803098773, 696.0: 0.0057179007368205565, 492.0: 9.229939229500008e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1795,10 +1795,10 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8535479946204908, 90.0: 0.06163253957874768, 246.0: 0.05698406038140835, 681.0: 0.010181063660729604, 741.0: 0.00655999855195493, 789.0: 0.011094343206668732}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{46.0: 0.8535479946204907, 90.0: 0.06163253957874768, 246.0: 0.05698330500849371, 681.0: 0.010181063660729604, 741.0: 0.006559998551954927, 789.0: 0.011095098579583398}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966835, 291.0: 0.008663113498195955}</t>
   </si>
   <si>
     <t>{834.0: 1.0}</t>
@@ -1810,16 +1810,16 @@
     <t>{73.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 0.8852873563218391, 917.0: 0.1147126436781609}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
-  </si>
-  <si>
-    <t>{764.0: 0.9332690453230472, 757.0: 0.06673095467695275}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9985382678699432, 172.0: 0.0014617321300571377}</t>
+    <t>{75.0: 0.8878903617164682, 917.0: 0.11210963828353179}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613506, 85.0: 0.0005307151386493299}</t>
+  </si>
+  <si>
+    <t>{764.0: 0.9332690453230471, 757.0: 0.06673095467695275}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9985370734491797, 172.0: 0.001462926550820381}</t>
   </si>
   <si>
     <t>{85.0: 0.9759786476868327, 178.0: 0.023838892213243146, 14.0: 0.00018246009992411367}</t>
@@ -1831,7 +1831,7 @@
     <t>{90.0: 1.0}</t>
   </si>
   <si>
-    <t>{91.0: 0.9996993636987667, 92.0: 0.00030063630123321894}</t>
+    <t>{91.0: 0.9996993636987666, 92.0: 0.00030063630123321894}</t>
   </si>
   <si>
     <t>{92.0: 1.0}</t>
@@ -1846,13 +1846,13 @@
     <t>{102.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.6707457469502988, 86.0: 0.32925425304970135}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9879188511511287, 144.0: 0.012081148848871666}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.9924710641645131, 110.0: 0.007528935835487133}</t>
+    <t>{543.0: 0.6707439927095041, 86.0: 0.3292560072904959}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.987918851151128, 144.0: 0.012081148848871666}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.9924710641645129, 110.0: 0.007528935835487131}</t>
   </si>
   <si>
     <t>{110.0: 1.0}</t>
@@ -1864,7 +1864,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.9847917376007264, 44.0: 0.015208262399273635}</t>
+    <t>{142.0: 0.9847119224187108, 44.0: 0.015288077581289217}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1873,16 +1873,16 @@
     <t>{147.0: 0.8903889311156648, 764.0: 0.03864909405108203, 733.0: 0.0709619748332531}</t>
   </si>
   <si>
-    <t>{152.0: 0.9990500316656115, 975.0: 0.0009499683343888536}</t>
+    <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888536}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9867533423279773, 914.0: 0.013246657672022568}</t>
-  </si>
-  <si>
-    <t>{166.0: 0.9992304732589455, 893.0: 0.0007695267410542517}</t>
+    <t>{165.0: 0.9867533423279775, 914.0: 0.013246657672022568}</t>
+  </si>
+  <si>
+    <t>{166.0: 0.9992208804051421, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{168.0: 1.0}</t>
@@ -1894,28 +1894,28 @@
     <t>{172.0: 0.9946275071633236, 81.0: 0.0053724928366762174}</t>
   </si>
   <si>
-    <t>{173.0: 0.9936051159072742, 404.0: 0.006394884092725819}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.5192117150704537, 502.0: 0.48078828492954623}</t>
-  </si>
-  <si>
-    <t>{178.0: 0.9924042536179739, 14.0: 0.007595746382026065}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.8753919313760835, 180.0: 0.12356555569729571, 410.0: 0.0010243994567968985, 850.0: 1.6347466178134813e-05, 277.0: 1.766003645521133e-06}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.974248515536554, 410.0: 0.025304057170381308, 850.0: 0.00040380460573048846, 277.0: 4.362268733438853e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9979967004477965, 277.0: 0.0020032995522036297}</t>
+    <t>{173.0: 0.9936119244077721, 404.0: 0.006388075592227841}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.5213493935712422, 502.0: 0.47865060642875795}</t>
+  </si>
+  <si>
+    <t>{178.0: 0.9924042536179739, 14.0: 0.007595746382026064}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.8769069332309039, 180.0: 0.12209331655979909, 410.0: 0.000982379733799608, 850.0: 1.5676911351152913e-05, 277.0: 1.6935641459639642e-06}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9742485155365538, 410.0: 0.025304057170381304, 850.0: 0.00040380460573048846, 277.0: 4.362268733438853e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9979888796876847, 277.0: 0.0020111203123151546}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.9835310975016115, 171.0: 0.011387480521058113, 593.0: 0.0033967858587322275, 778.0: 0.0016846361185983826}</t>
+    <t>{184.0: 0.98348801718129, 171.0: 0.011407602914240292, 593.0: 0.0034060103392520736, 778.0: 0.0016983695652173913}</t>
   </si>
   <si>
     <t>{202.0: 1.0}</t>
@@ -1924,13 +1924,13 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.0053851907255048626}</t>
+    <t>{204.0: 0.9946682464454976, 857.0: 0.005331753554502371}</t>
   </si>
   <si>
     <t>{206.0: 0.8527388535031846, 940.0: 0.1472611464968153}</t>
   </si>
   <si>
-    <t>{207.0: 0.46230007616146235, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663026, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{209.0: 1.0}</t>
@@ -1939,7 +1939,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9783393501805052, 681.0: 0.021660649819494584}</t>
+    <t>{212.0: 0.9783393501805056, 681.0: 0.021660649819494584}</t>
   </si>
   <si>
     <t>{897.0: 1.0}</t>
@@ -1951,25 +1951,25 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680913, 409.0: 0.2184666176319087}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345011, 490.0: 0.002764034691410512, 503.0: 0.15558740177408845}</t>
+    <t>{218.0: 0.7813754377265826, 409.0: 0.21862456227341748}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.9001536098310298, 999.0: 0.09984639016897083}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8413236115648751, 490.0: 0.0027697896677032928, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.999666475270424, 297.0: 0.00018045618356780216, 686.0: 0.00015306854600825932}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.9923809523809523, 738.0: 0.007619047619047617}</t>
-  </si>
-  <si>
-    <t>{240.0: 0.23750306546350664, 241.0: 0.7624969345364934}</t>
+    <t>{227.0: 0.9996683166600523, 297.0: 0.0001786147939395593, 686.0: 0.00015306854600825932}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.9923809523809523, 738.0: 0.007619047619047623}</t>
+  </si>
+  <si>
+    <t>{240.0: 0.23750306546350655, 241.0: 0.7624969345364934}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1990,19 +1990,19 @@
     <t>{253.0: 1.0}</t>
   </si>
   <si>
-    <t>{255.0: 0.8887904297740358, 973.0: 0.11120957022596366}</t>
-  </si>
-  <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
-  </si>
-  <si>
-    <t>{264.0: 0.9789285950194861, 843.0: 0.0210714049805139}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233081}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083749, 479.0: 0.012356147657862119, 942.0: 0.0002797618337629159}</t>
+    <t>{255.0: 0.8887904297740364, 973.0: 0.11120957022596369}</t>
+  </si>
+  <si>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
+  </si>
+  <si>
+    <t>{264.0: 0.9789285950194856, 843.0: 0.0210714049805139}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233089}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083749, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{272.0: 0.8427700348432056, 203.0: 0.15722996515679444}</t>
@@ -2026,7 +2026,7 @@
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{289.0: 0.9615709459459456, 730.0: 0.03842905405405406}</t>
+    <t>{289.0: 0.9615709459459457, 730.0: 0.03842905405405406}</t>
   </si>
   <si>
     <t>{291.0: 1.0}</t>
@@ -2038,10 +2038,10 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9860774179938827, 297.0: 0.0139225820061175}</t>
-  </si>
-  <si>
-    <t>{303.0: 0.9976967370441459, 144.0: 0.0023032629558541267}</t>
+    <t>{298.0: 0.986078886310905, 297.0: 0.013921113689095124}</t>
+  </si>
+  <si>
+    <t>{303.0: 0.9976869699306091, 144.0: 0.002313030069390902}</t>
   </si>
   <si>
     <t>{305.0: 1.0}</t>
@@ -2050,19 +2050,19 @@
     <t>{142.0: 0.3165679387265435, 909.0: 0.6834320612734565}</t>
   </si>
   <si>
-    <t>{309.0: 0.8858654923525083, 204.0: 0.040985444079406186, 426.0: 0.07314326591581212, 857.0: 5.797652272921261e-06}</t>
-  </si>
-  <si>
-    <t>{315.0: 0.9926840420667581, 217.0: 0.007315957933241884}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452714, 71.0: 0.017762842054728757}</t>
+    <t>{309.0: 0.8880984604071779, 204.0: 0.041033345463431264, 426.0: 0.07086273685860801, 857.0: 5.457270782499869e-06}</t>
+  </si>
+  <si>
+    <t>{315.0: 0.9926840420667583, 217.0: 0.007315957933241884}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534322, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{398.0: 0.48711423962041384, 98.0: 0.5128857603795861}</t>
   </si>
   <si>
-    <t>{400.0: 0.9681191395477113, 897.0: 0.03188086045228902}</t>
+    <t>{400.0: 0.9681191395477112, 897.0: 0.03188086045228902}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -2077,10 +2077,10 @@
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.364744748746899, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.6431948574179481}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -2089,22 +2089,22 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.1268867924528302}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12706660368445913}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391352, 17.0: 0.014789533560864617}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597467, 212.0: 0.00016093754732365606, 681.0: 3.563192929675043e-06}</t>
+    <t>{419.0: 0.9852607709750568, 17.0: 0.01473922902494331}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597467, 212.0: 0.00016093754732365614, 681.0: 3.5631929296750426e-06}</t>
   </si>
   <si>
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425476, 585.0: 0.0475629244060067, 434.0: 0.00039994305144559083}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.047489449239571054, 434.0: 0.00039932521974922795}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2113,7 +2113,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243408, 783.0: 0.00018839487565938207}</t>
+    <t>{431.0: 0.9996376811594203, 783.0: 0.0003623188405797101}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2125,10 +2125,10 @@
     <t>{434.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 0.9886363636363632, 782.0: 0.01136363636363637}</t>
-  </si>
-  <si>
-    <t>{443.0: 0.8939655172413792, 291.0: 0.1060344827586207}</t>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636364}</t>
+  </si>
+  <si>
+    <t>{443.0: 0.8939655172413793, 291.0: 0.10603448275862068}</t>
   </si>
   <si>
     <t>{476.0: 1.0}</t>
@@ -2137,37 +2137,37 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977858, 942.0: 0.02214022140221402}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555472, 563.0: 0.03900037864445286}</t>
+    <t>{483.0: 0.9609996213555468, 563.0: 0.03900037864445286}</t>
   </si>
   <si>
     <t>{486.0: 0.8813719916619289, 837.0: 0.11862800833807088}</t>
   </si>
   <si>
-    <t>{489.0: 0.9916936790923824, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869782, 503.0: 0.02211302211302211}</t>
+    <t>{489.0: 0.991730536506656, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294479, 503.0: 0.02208588957055215}</t>
   </si>
   <si>
     <t>{491.0: 0.594383150823144, 492.0: 0.4056168491768559}</t>
   </si>
   <si>
-    <t>{492.0: 0.997457315112772, 97.0: 0.002040642802482782, 696.0: 0.0005020420847452014}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9826319305277217, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
+    <t>{492.0: 0.9974573007827376, 97.0: 0.002040642802482782, 696.0: 0.0005020564147796415}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9826319305277221, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
   </si>
   <si>
     <t>{495.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.8601619027150942, 321.0: 0.1398380972849058}</t>
+    <t>{497.0: 0.8695187165775398, 321.0: 0.1304812834224599}</t>
   </si>
   <si>
     <t>{499.0: 1.0}</t>
@@ -2188,10 +2188,10 @@
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{535.0: 0.9934522679825395, 71.0: 0.0065477320174606194}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124714, 837.0: 0.1817766821875285}</t>
+    <t>{535.0: 0.9934522679825393, 71.0: 0.0065477320174606194}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664716, 837.0: 0.18169373973352793}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -2203,46 +2203,46 @@
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9629593288524758, 565.0: 0.0370406711475249}</t>
+    <t>{564.0: 0.9653144668534935, 565.0: 0.03468553314650618}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
   </si>
   <si>
-    <t>{576.0: 0.980284775465498, 401.0: 0.019715224534501644}</t>
+    <t>{576.0: 0.9802847754654983, 401.0: 0.019715224534501644}</t>
   </si>
   <si>
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.8894713337125868, 144.0: 0.04651916384581355, 303.0: 0.06400950244159957}</t>
+    <t>{581.0: 0.8894713337125869, 144.0: 0.046519163845813546, 303.0: 0.06400950244159957}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9916614024005053, 434.0: 0.00833859759949463}</t>
+    <t>{585.0: 0.9916614024005054, 434.0: 0.00833859759949463}</t>
   </si>
   <si>
     <t>{81.0: 0.36897941862932315, 172.0: 0.0736261404625504, 507.0: 0.5573944409081265}</t>
   </si>
   <si>
-    <t>{593.0: 0.9945545019247021, 686.0: 0.005445498075298094}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984781, 476.0: 9.356078478926186e-06}</t>
+    <t>{593.0: 0.9945641986879098, 686.0: 0.005435801312089972}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991012043861226, 402.0: 0.0008894395353984778, 476.0: 9.356078478926186e-06}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
   </si>
   <si>
-    <t>{598.0: 0.9923469387755102, 599.0: 0.007653061224489797}</t>
+    <t>{598.0: 0.9923469387755101, 599.0: 0.007653061224489797}</t>
   </si>
   <si>
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.7620095020848969, 837.0: 0.16928820783876697, 922.0: 0.06870229007633588}</t>
+    <t>{604.0: 0.7626932134522454, 837.0: 0.1693456214992105, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{606.0: 1.0}</t>
@@ -2254,16 +2254,16 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230433, 615.0: 0.019634578674665937, 698.0: 0.0109080992637033, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230433, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9870244830639151, 789.0: 0.01297551693608495}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9655096441914438, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
+    <t>{246.0: 0.9870235970064315, 789.0: 0.012976402993568507}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025538, 887.0: 0.01304608360679127, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{620.0: 0.9954229530428885, 785.0: 0.004577046957111375}</t>
@@ -2296,25 +2296,25 @@
     <t>{615.0: 0.585884524498907, 698.0: 0.12135505202398525, 751.0: 0.2927604234771076}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0014779400691736146, 502.0: 0.00136856748501951}</t>
+    <t>{687.0: 0.9971296091852506, 174.0: 0.0014964765105820598, 502.0: 0.0013739143041673336}</t>
   </si>
   <si>
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.9488141498057081, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.7213799011643242, 857.0: 0.2786200988356758}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9840861597813855, 492.0: 0.01591384021861437}</t>
+    <t>{86.0: 0.9488141498057084, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7214598032652256, 857.0: 0.2785401967347743}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9841142490372271, 492.0: 0.015885750962772786}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.9874529485570891, 481.0: 0.012547051442910916}</t>
+    <t>{704.0: 0.9874529485570893, 481.0: 0.012547051442910913}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2329,25 +2329,25 @@
     <t>{733.0: 1.0}</t>
   </si>
   <si>
-    <t>{888.0: 0.9943438914027151, 73.0: 0.005656108597285069}</t>
+    <t>{888.0: 0.9944567627494456, 73.0: 0.005543237250554325}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 0.9266375545851531, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{737.0: 0.9279588336192109, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.8859583153113909, 90.0: 0.09275598362042738, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
-  </si>
-  <si>
-    <t>{746.0: 0.9899854627685353, 691.0: 0.010014537231465032}</t>
+    <t>{740.0: 0.7011235955056179, 789.0: 0.28175004279029686, 246.0: 0.017126361704085165}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.8859583153113908, 90.0: 0.0927559836204274, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
+  </si>
+  <si>
+    <t>{746.0: 0.9899854627685349, 691.0: 0.010014537231465032}</t>
   </si>
   <si>
     <t>{298.0: 0.5626309174696271, 476.0: 0.24088814411395057, 534.0: 0.19648093841642233}</t>
@@ -2356,10 +2356,10 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9594929732708736, 917.0: 0.04050702672912648}</t>
-  </si>
-  <si>
-    <t>{757.0: 0.9970781592403216, 634.0: 0.0029218407596785976}</t>
+    <t>{754.0: 0.9221480775341595, 917.0: 0.07785192246584048}</t>
+  </si>
+  <si>
+    <t>{757.0: 0.9966315789473683, 634.0: 0.0033684210526315796}</t>
   </si>
   <si>
     <t>{760.0: 0.7957918248415948, 761.0: 0.20420817515840517}</t>
@@ -2374,22 +2374,22 @@
     <t>{767.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571429, 992.0: 0.019642857142857142}</t>
-  </si>
-  <si>
-    <t>{772.0: 0.9882429784454607, 493.0: 0.011552824787393206, 108.0: 0.00020172983560795798, 144.0: 2.46693153835297e-06}</t>
-  </si>
-  <si>
-    <t>{773.0: 0.8230245634803199, 757.0: 0.17697543651968028}</t>
-  </si>
-  <si>
-    <t>{778.0: 0.9784971368470252, 171.0: 0.019290456956868693, 184.0: 0.0006907963904283363, 593.0: 0.001521609805677143}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725946, 81.0: 0.00034934283424021336, 172.0: 5.113931650345672e-07}</t>
-  </si>
-  <si>
-    <t>{782.0: 0.9974744701877676, 168.0: 0.001756890304161634, 930.0: 0.0007686395080707148}</t>
+    <t>{770.0: 0.9801712483100496, 992.0: 0.01982875168995043}</t>
+  </si>
+  <si>
+    <t>{772.0: 0.9882429784454604, 493.0: 0.01155282478739321, 108.0: 0.0002017298356079579, 144.0: 2.46693153835297e-06}</t>
+  </si>
+  <si>
+    <t>{773.0: 0.8230245634803196, 757.0: 0.17697543651968034}</t>
+  </si>
+  <si>
+    <t>{778.0: 0.9790504383468064, 171.0: 0.018794097923397875, 184.0: 0.0006730009233437213, 593.0: 0.0014824628064520752}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.00034934241636705996, 172.0: 5.118110381878884e-07}</t>
+  </si>
+  <si>
+    <t>{782.0: 0.9974866134848652, 168.0: 0.001748442793137362, 930.0: 0.0007649437219975958}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -2404,61 +2404,61 @@
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9426331421214654, 246.0: 0.05736685787853455}</t>
+    <t>{789.0: 0.9426975115915948, 246.0: 0.05730248840840527}</t>
   </si>
   <si>
     <t>{832.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9904058244467709, 836.0: 0.009594175553229306}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.8688955361645068, 486.0: 0.027089045507059796, 604.0: 0.10401541832843342}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.9032978861255628, 19.0: 0.08895370913423661, 423.0: 0.007748404740200546}</t>
+    <t>{835.0: 0.9900669157761305, 836.0: 0.009933084223869343}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597996, 835.0: 0.007748404740200545}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.8688849922288081, 486.0: 0.027089045507059803, 604.0: 0.10402596226413191}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.9032978861255628, 19.0: 0.08895370913423661, 423.0: 0.007748404740200548}</t>
   </si>
   <si>
     <t>{843.0: 0.6987318706890846, 264.0: 0.3012681293109154}</t>
   </si>
   <si>
-    <t>{227.0: 0.9322033898305084, 686.0: 0.06779661016949153}</t>
-  </si>
-  <si>
-    <t>{848.0: 0.9943369513921663, 707.0: 0.0056630486078338834}</t>
-  </si>
-  <si>
-    <t>{850.0: 0.9025032938076416, 277.0: 0.09749670619235835}</t>
-  </si>
-  <si>
-    <t>{851.0: 0.9234303215926492, 7.0: 0.07656967840735066}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9899146625290922, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.9902136964559436, 91.0: 0.0011740693813160623, 92.0: 2.176143270558557e-07, 202.0: 0.008525501707300626, 680.0: 8.651484111278481e-05}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.8709557082323128, 976.0: 0.1290442917676874}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9947818696254721, 298.0: 0.005218130374527884}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947865}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410212, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{227.0: 0.9322033898305087, 686.0: 0.06779661016949153}</t>
+  </si>
+  <si>
+    <t>{848.0: 0.9943369513921657, 707.0: 0.005663048607833885}</t>
+  </si>
+  <si>
+    <t>{850.0: 0.9025032938076417, 277.0: 0.09749670619235837}</t>
+  </si>
+  <si>
+    <t>{851.0: 0.923430321592649, 7.0: 0.07656967840735066}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9898358092259578, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.9902136964559435, 91.0: 0.0011740693813160623, 92.0: 2.1761432705585568e-07, 202.0: 0.008525501707300626, 680.0: 8.651484111278481e-05}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.8709467235310048, 976.0: 0.1290532764689954}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9947307303085413, 298.0: 0.005269269691458646}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.01270142180094787}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101358, 253.0: 0.000723900008315515, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360671, 10.0: 0.027726001863932898}</t>
   </si>
   <si>
-    <t>{887.0: 0.9991196024500588, 834.0: 0.0008803975499411181}</t>
+    <t>{887.0: 0.999132407847768, 834.0: 0.0008675921522319134}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2473,7 +2473,7 @@
     <t>{905.0: 0.9854766589161152, 499.0: 0.014523341083884813}</t>
   </si>
   <si>
-    <t>{782.0: 0.11011414486022414, 930.0: 0.857348306019154, 404.0: 0.03253754912062153}</t>
+    <t>{782.0: 0.11021464052247713, 930.0: 0.857469242257538, 404.0: 0.032316117219984695}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -2482,13 +2482,13 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114126}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.22379367063927466}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9939789262418465, 297.0: 0.006021073758153537}</t>
+    <t>{298.0: 0.9941104294478528, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{921.0: 0.8294810569070874, 686.0: 0.17051894309291252}</t>
@@ -2497,19 +2497,19 @@
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.2270676708955247, 922.0: 0.16918576018906853}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.5434843696206071, 930.0: 0.4565156303793927}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9963250193854808, 929.0: 0.0036749806145191413}</t>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.22706009789142134, 922.0: 0.1691665221754596}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.5440607146871506, 930.0: 0.4559392853128495}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.9962050569246313, 929.0: 0.0037949430753685355}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{933.0: 0.8723627161010455, 702.0: 0.006486453213398586, 249.0: 0.12115083068555589}</t>
+    <t>{933.0: 0.8728874756126952, 702.0: 0.006464405849835571, 249.0: 0.12064811853746933}</t>
   </si>
   <si>
     <t>{934.0: 0.9748517200474494, 5.0: 0.025148279952550416}</t>
@@ -2518,25 +2518,25 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 0.9879985585965654, 171.0: 0.0032933285286552176, 593.0: 0.003619054350606514, 85.0: 0.005089058524173028}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436216, 731.0: 0.34340732816261027}</t>
-  </si>
-  <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.487763713080169}</t>
+    <t>{937.0: 0.9880009426222853, 171.0: 0.0032933364754076174, 593.0: 0.0036166623781342024, 85.0: 0.005089058524173028}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436214, 731.0: 0.34340732816261027}</t>
+  </si>
+  <si>
+    <t>{940.0: 0.4978279756733277, 206.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.9131443726172718, 634.0: 0.08685562738272833}</t>
-  </si>
-  <si>
-    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.9541375872382851, 615.0: 0.045862412761714856}</t>
+    <t>{943.0: 0.9149350649350652, 634.0: 0.08506493506493507}</t>
+  </si>
+  <si>
+    <t>{971.0: 0.993087557603687, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911521}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211056, 615.0: 0.04623115577889446}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -2551,16 +2551,16 @@
     <t>{782.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.4045185583647122}</t>
+    <t>{981.0: 0.7119877441593259, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898866, 249.0: 0.007603186097031138, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898875, 599.0: 0.00702247191011236}</t>
-  </si>
-  <si>
-    <t>{497.0: 0.8418645926685598, 910.0: 0.09349170691323942, 731.0: 0.06464370041820106}</t>
+    <t>{990.0: 0.9929775280898875, 599.0: 0.0070224719101123585}</t>
+  </si>
+  <si>
+    <t>{497.0: 0.8418645926685598, 910.0: 0.0934917069132394, 731.0: 0.06464370041820106}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4645,29 +4645,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>653</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>653</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4678,106 +4678,106 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>654</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>656</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>657</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>657</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>658</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>169</v>
+        <v>643</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4788,7 +4788,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4832,106 +4832,106 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>659</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>643</v>
+        <v>660</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>179</v>
+        <v>661</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>662</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>181</v>
+        <v>662</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>663</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>663</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4942,62 +4942,62 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>664</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>189</v>
+        <v>667</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -5019,29 +5019,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>632</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>632</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -5063,117 +5063,117 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>668</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>668</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>669</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>670</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>671</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>672</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>606</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>205</v>
+        <v>606</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -5184,40 +5184,40 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>673</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>674</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -5250,62 +5250,62 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>675</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>675</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>676</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>217</v>
+        <v>677</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -5316,29 +5316,29 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>678</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>220</v>
+        <v>678</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -5371,51 +5371,51 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>679</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>225</v>
+        <v>679</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>680</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>227</v>
+        <v>680</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
